--- a/computational_model/Table_S1/Table S1.xlsx
+++ b/computational_model/Table_S1/Table S1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="45">
   <si>
     <t xml:space="preserve">Experiment 1.</t>
   </si>
@@ -126,49 +126,7 @@
     <t xml:space="preserve">0.80-0.20 context 1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.80-0.20</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> context 2</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">0.80-0.20 context 2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.80-0.20</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> context 3</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">0.80-0.20 context 3</t>
@@ -212,7 +170,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -255,12 +213,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -461,7 +413,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -570,23 +522,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -814,19 +754,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -883,7 +819,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -938,7 +874,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -969,7 +905,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1000,7 +936,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1079,7 +1015,7 @@
       <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
@@ -2133,7 +2069,7 @@
       <c r="T21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2166,10 +2102,10 @@
       <c r="N22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="28" t="n">
+      <c r="O22" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="27" t="n">
         <v>64</v>
       </c>
       <c r="Q22" s="9"/>
@@ -2206,11 +2142,11 @@
         <f aca="false">100*L23/SUM(L$16:L$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="29" t="n">
+      <c r="N23" s="9"/>
+      <c r="O23" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="28" t="n">
         <v>64</v>
       </c>
       <c r="Q23" s="9"/>
@@ -2248,10 +2184,10 @@
         <v>33.3333333333333</v>
       </c>
       <c r="N24" s="10"/>
-      <c r="O24" s="29" t="s">
+      <c r="O24" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="29" t="n">
+      <c r="P24" s="28" t="n">
         <v>64</v>
       </c>
       <c r="Q24" s="9"/>
@@ -2266,14 +2202,14 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="30"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="27"/>
+      <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -2324,11 +2260,11 @@
       <c r="T27" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="31"/>
+      <c r="H31" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2352,11 +2288,11 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.01"/>
@@ -2436,53 +2372,53 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="30" t="n">
         <v>18</v>
       </c>
-      <c r="E4" s="33" t="n">
+      <c r="E4" s="30" t="n">
         <f aca="false">C4*D4</f>
         <v>36</v>
       </c>
-      <c r="F4" s="33" t="n">
+      <c r="F4" s="30" t="n">
         <f aca="false">E4*100/SUM(E$6:E$7)</f>
         <v>90</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="33" t="s">
+      <c r="G4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="J4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="33" t="n">
+      <c r="J4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="30" t="n">
         <f aca="false">I4*J4</f>
         <v>20</v>
       </c>
-      <c r="L4" s="33" t="n">
+      <c r="L4" s="30" t="n">
         <f aca="false">100*K4/SUM(K$6:K$7)</f>
         <v>50</v>
       </c>
       <c r="M4" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="8" t="n">
@@ -2491,47 +2427,47 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="35" t="n">
+      <c r="D5" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="32" t="n">
         <f aca="false">C5*D5</f>
         <v>4</v>
       </c>
-      <c r="F5" s="35" t="n">
+      <c r="F5" s="32" t="n">
         <f aca="false">E5*100/SUM(E$6:E$7)</f>
         <v>10</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="J5" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="35" t="n">
+      <c r="J5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="32" t="n">
         <f aca="false">I5*J5</f>
         <v>20</v>
       </c>
-      <c r="L5" s="35" t="n">
+      <c r="L5" s="32" t="n">
         <f aca="false">100*K5/SUM(K$6:K$7)</f>
         <v>50</v>
       </c>
-      <c r="M5" s="35" t="n">
-        <v>50</v>
-      </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="35" t="s">
+      <c r="M5" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="32" t="s">
         <v>12</v>
       </c>
       <c r="P5" s="11" t="n">
@@ -2540,51 +2476,51 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="37" t="n">
+      <c r="D6" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="34" t="n">
         <f aca="false">C6*D6</f>
         <v>4</v>
       </c>
-      <c r="F6" s="37" t="n">
+      <c r="F6" s="34" t="n">
         <f aca="false">E6*100/SUM(E$6:E$7)</f>
         <v>10</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="J6" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="37" t="n">
+      <c r="J6" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="34" t="n">
         <f aca="false">I6*J6</f>
         <v>20</v>
       </c>
-      <c r="L6" s="37" t="n">
+      <c r="L6" s="34" t="n">
         <f aca="false">K6*100/SUM(K$8:K$9)</f>
         <v>50</v>
       </c>
       <c r="M6" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="37" t="s">
+      <c r="N6" s="29"/>
+      <c r="O6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="16" t="n">
@@ -2593,47 +2529,47 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="38" t="n">
+      <c r="D7" s="35" t="n">
         <v>18</v>
       </c>
-      <c r="E7" s="38" t="n">
+      <c r="E7" s="35" t="n">
         <f aca="false">C7*D7</f>
         <v>36</v>
       </c>
-      <c r="F7" s="38" t="n">
+      <c r="F7" s="35" t="n">
         <f aca="false">E7*100/SUM(E$6:E$7)</f>
         <v>90</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="35" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="J7" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38" t="n">
+      <c r="J7" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="35" t="n">
         <f aca="false">I7*J7</f>
         <v>20</v>
       </c>
-      <c r="L7" s="38" t="n">
+      <c r="L7" s="35" t="n">
         <f aca="false">K7*100/SUM(K$9:K$10)</f>
         <v>50</v>
       </c>
-      <c r="M7" s="38" t="n">
-        <v>50</v>
-      </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="38" t="s">
+      <c r="M7" s="35" t="n">
+        <v>50</v>
+      </c>
+      <c r="N7" s="33"/>
+      <c r="O7" s="35" t="s">
         <v>12</v>
       </c>
       <c r="P7" s="20" t="n">
@@ -2642,53 +2578,53 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="37" t="n">
-        <v>12</v>
-      </c>
-      <c r="E8" s="37" t="n">
+      <c r="D8" s="34" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" s="34" t="n">
         <f aca="false">C8*D8</f>
         <v>24</v>
       </c>
-      <c r="F8" s="37" t="n">
+      <c r="F8" s="34" t="n">
         <f aca="false">E8*100/SUM(E$10:E$11)</f>
         <v>30</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="34" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="J8" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="37" t="n">
+      <c r="J8" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="34" t="n">
         <f aca="false">I8*J8</f>
         <v>20</v>
       </c>
-      <c r="L8" s="37" t="n">
+      <c r="L8" s="34" t="n">
         <f aca="false">K8*100/SUM(K$10:K$11)</f>
         <v>50</v>
       </c>
       <c r="M8" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="34" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="16" t="n">
@@ -2698,38 +2634,38 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="38" t="n">
+      <c r="D9" s="35" t="n">
         <v>28</v>
       </c>
-      <c r="E9" s="38" t="n">
+      <c r="E9" s="35" t="n">
         <f aca="false">C9*D9</f>
         <v>56</v>
       </c>
-      <c r="F9" s="38" t="n">
+      <c r="F9" s="35" t="n">
         <f aca="false">E9*100/SUM(E$10:E$11)</f>
         <v>70</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="35" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="J9" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="38" t="n">
+      <c r="J9" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="35" t="n">
         <f aca="false">I9*J9</f>
         <v>20</v>
       </c>
-      <c r="L9" s="38" t="n">
+      <c r="L9" s="35" t="n">
         <f aca="false">K9*100/SUM(K$10:K$11)</f>
         <v>50</v>
       </c>
@@ -2737,7 +2673,7 @@
         <v>50</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="35" t="s">
         <v>12</v>
       </c>
       <c r="P9" s="20" t="n">
@@ -2746,43 +2682,43 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="33" t="n">
+      <c r="D10" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="E10" s="33" t="n">
+      <c r="E10" s="30" t="n">
         <f aca="false">C10*D10</f>
         <v>56</v>
       </c>
-      <c r="F10" s="33" t="n">
+      <c r="F10" s="30" t="n">
         <f aca="false">E10*100/SUM(E$10:E$11)</f>
         <v>70</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="J10" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="33" t="n">
+      <c r="J10" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="30" t="n">
         <f aca="false">I10*J10</f>
         <v>20</v>
       </c>
-      <c r="L10" s="33" t="n">
+      <c r="L10" s="30" t="n">
         <f aca="false">K10*100/SUM(K$10:K$11)</f>
         <v>50</v>
       </c>
@@ -2790,7 +2726,7 @@
         <v>50</v>
       </c>
       <c r="N10" s="5"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="30" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="8" t="n">
@@ -2800,38 +2736,38 @@
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="35" t="n">
-        <v>12</v>
-      </c>
-      <c r="E11" s="35" t="n">
+      <c r="D11" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" s="32" t="n">
         <f aca="false">C11*D11</f>
         <v>24</v>
       </c>
-      <c r="F11" s="35" t="n">
+      <c r="F11" s="32" t="n">
         <f aca="false">E11*100/SUM(E$10:E$11)</f>
         <v>30</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="35" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="32" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="J11" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="35" t="n">
+      <c r="J11" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="32" t="n">
         <f aca="false">I11*J11</f>
         <v>20</v>
       </c>
-      <c r="L11" s="35" t="n">
+      <c r="L11" s="32" t="n">
         <f aca="false">K11*100/SUM(K$10:K$11)</f>
         <v>50</v>
       </c>
@@ -2839,7 +2775,7 @@
         <v>50</v>
       </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="32" t="s">
         <v>12</v>
       </c>
       <c r="P11" s="11" t="n">
@@ -2872,7 +2808,7 @@
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N13" s="3"/>
-      <c r="O13" s="39" t="s">
+      <c r="O13" s="36" t="s">
         <v>12</v>
       </c>
       <c r="P13" s="0" t="n">
@@ -2883,11 +2819,11 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O16" s="31"/>
+      <c r="O16" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2911,14 +2847,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.01"/>
   </cols>
   <sheetData>
@@ -2989,53 +2925,53 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="30" t="n">
         <v>18</v>
       </c>
-      <c r="E4" s="33" t="n">
+      <c r="E4" s="30" t="n">
         <f aca="false">C4*D4</f>
         <v>36</v>
       </c>
-      <c r="F4" s="33" t="n">
+      <c r="F4" s="30" t="n">
         <f aca="false">E4*100/SUM(E$6:E$7)</f>
         <v>90</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="33" t="s">
+      <c r="G4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="J4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="33" t="n">
+      <c r="J4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="30" t="n">
         <f aca="false">I4*J4</f>
         <v>20</v>
       </c>
-      <c r="L4" s="33" t="n">
+      <c r="L4" s="30" t="n">
         <f aca="false">100*K4/SUM(K$6:K$7)</f>
         <v>50</v>
       </c>
       <c r="M4" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="8" t="n">
@@ -3049,47 +2985,47 @@
       <c r="U4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="35" t="n">
+      <c r="D5" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="32" t="n">
         <f aca="false">C5*D5</f>
         <v>4</v>
       </c>
-      <c r="F5" s="35" t="n">
+      <c r="F5" s="32" t="n">
         <f aca="false">E5*100/SUM(E$6:E$7)</f>
         <v>10</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="J5" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="35" t="n">
+      <c r="J5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="32" t="n">
         <f aca="false">I5*J5</f>
         <v>20</v>
       </c>
-      <c r="L5" s="35" t="n">
+      <c r="L5" s="32" t="n">
         <f aca="false">100*K5/SUM(K$6:K$7)</f>
         <v>50</v>
       </c>
-      <c r="M5" s="35" t="n">
-        <v>50</v>
-      </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="35" t="s">
+      <c r="M5" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="32" t="s">
         <v>12</v>
       </c>
       <c r="P5" s="11" t="n">
@@ -3103,51 +3039,51 @@
       <c r="U5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="37" t="n">
+      <c r="D6" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="34" t="n">
         <f aca="false">C6*D6</f>
         <v>4</v>
       </c>
-      <c r="F6" s="37" t="n">
+      <c r="F6" s="34" t="n">
         <f aca="false">E6*100/SUM(E$6:E$7)</f>
         <v>10</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="J6" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="37" t="n">
+      <c r="J6" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="34" t="n">
         <f aca="false">I6*J6</f>
         <v>20</v>
       </c>
-      <c r="L6" s="37" t="n">
+      <c r="L6" s="34" t="n">
         <f aca="false">K6*100/SUM(K$8:K$9)</f>
         <v>50</v>
       </c>
       <c r="M6" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="37" t="s">
+      <c r="N6" s="29"/>
+      <c r="O6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="16" t="n">
@@ -3161,47 +3097,47 @@
       <c r="U6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="38" t="n">
+      <c r="D7" s="35" t="n">
         <v>18</v>
       </c>
-      <c r="E7" s="38" t="n">
+      <c r="E7" s="35" t="n">
         <f aca="false">C7*D7</f>
         <v>36</v>
       </c>
-      <c r="F7" s="38" t="n">
+      <c r="F7" s="35" t="n">
         <f aca="false">E7*100/SUM(E$6:E$7)</f>
         <v>90</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="35" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="J7" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38" t="n">
+      <c r="J7" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="35" t="n">
         <f aca="false">I7*J7</f>
         <v>20</v>
       </c>
-      <c r="L7" s="38" t="n">
+      <c r="L7" s="35" t="n">
         <f aca="false">K7*100/SUM(K$9:K$10)</f>
         <v>50</v>
       </c>
-      <c r="M7" s="38" t="n">
-        <v>50</v>
-      </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="38" t="s">
+      <c r="M7" s="35" t="n">
+        <v>50</v>
+      </c>
+      <c r="N7" s="33"/>
+      <c r="O7" s="35" t="s">
         <v>12</v>
       </c>
       <c r="P7" s="20" t="n">
@@ -3218,50 +3154,50 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="41" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" s="41" t="n">
+      <c r="D8" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="38" t="n">
         <f aca="false">C8*D8</f>
         <v>20</v>
       </c>
-      <c r="F8" s="41" t="n">
+      <c r="F8" s="38" t="n">
         <f aca="false">E8*100/SUM(E$10:E$11)</f>
         <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="38" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="J8" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="41" t="n">
+      <c r="J8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="38" t="n">
         <f aca="false">I8*J8</f>
         <v>20</v>
       </c>
-      <c r="L8" s="41" t="n">
+      <c r="L8" s="38" t="n">
         <f aca="false">K8*100/SUM(K$10:K$11)</f>
         <v>50</v>
       </c>
       <c r="M8" s="23" t="n">
         <v>50</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O8" s="38" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="23" t="n">
@@ -3276,38 +3212,38 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="42" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" s="42" t="n">
+      <c r="D9" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="39" t="n">
         <f aca="false">C9*D9</f>
         <v>20</v>
       </c>
-      <c r="F9" s="42" t="n">
+      <c r="F9" s="39" t="n">
         <f aca="false">E9*100/SUM(E$10:E$11)</f>
         <v>50</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="J9" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="42" t="n">
+      <c r="J9" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="39" t="n">
         <f aca="false">I9*J9</f>
         <v>20</v>
       </c>
-      <c r="L9" s="42" t="n">
+      <c r="L9" s="39" t="n">
         <f aca="false">K9*100/SUM(K$10:K$11)</f>
         <v>50</v>
       </c>
@@ -3315,7 +3251,7 @@
         <v>50</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="39" t="s">
         <v>12</v>
       </c>
       <c r="P9" s="25" t="n">
@@ -3332,40 +3268,40 @@
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="41" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="41" t="n">
+      <c r="D10" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="38" t="n">
         <f aca="false">C10*D10</f>
         <v>20</v>
       </c>
-      <c r="F10" s="41" t="n">
+      <c r="F10" s="38" t="n">
         <f aca="false">E10*100/SUM(E$10:E$11)</f>
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="38" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="J10" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="41" t="n">
+      <c r="J10" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="38" t="n">
         <f aca="false">I10*J10</f>
         <v>20</v>
       </c>
-      <c r="L10" s="41" t="n">
+      <c r="L10" s="38" t="n">
         <f aca="false">K10*100/SUM(K$10:K$11)</f>
         <v>50</v>
       </c>
@@ -3373,7 +3309,7 @@
         <v>50</v>
       </c>
       <c r="N10" s="5"/>
-      <c r="O10" s="41" t="s">
+      <c r="O10" s="38" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="23" t="n">
@@ -3388,38 +3324,38 @@
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="42" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" s="42" t="n">
+      <c r="D11" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="39" t="n">
         <f aca="false">C11*D11</f>
         <v>20</v>
       </c>
-      <c r="F11" s="42" t="n">
+      <c r="F11" s="39" t="n">
         <f aca="false">E11*100/SUM(E$10:E$11)</f>
         <v>50</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="42" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="J11" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="42" t="n">
+      <c r="J11" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="39" t="n">
         <f aca="false">I11*J11</f>
         <v>20</v>
       </c>
-      <c r="L11" s="42" t="n">
+      <c r="L11" s="39" t="n">
         <f aca="false">K11*100/SUM(K$10:K$11)</f>
         <v>50</v>
       </c>
@@ -3427,7 +3363,7 @@
         <v>50</v>
       </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="39" t="s">
         <v>12</v>
       </c>
       <c r="P11" s="25" t="n">
@@ -3481,7 +3417,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="27"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
         <v>12</v>
       </c>
@@ -3507,7 +3443,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="27"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -3604,11 +3540,11 @@
       <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.5"/>
@@ -3686,74 +3622,74 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="44" t="n">
+      <c r="B4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="43" t="n">
+      <c r="D4" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="E4" s="43" t="n">
+      <c r="E4" s="40" t="n">
         <f aca="false">C4*D4</f>
         <v>36</v>
       </c>
-      <c r="F4" s="43" t="n">
+      <c r="F4" s="40" t="n">
         <f aca="false">100*E4/SUM(E$4:E$5)</f>
         <v>90</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="44" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="43" t="n">
+      <c r="H4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="40" t="n">
         <f aca="false">I4*J4</f>
         <v>10</v>
       </c>
-      <c r="L4" s="43" t="n">
+      <c r="L4" s="40" t="n">
         <f aca="false">100*K4/SUM(K$4:K$6)</f>
         <v>10</v>
       </c>
-      <c r="M4" s="45" t="n">
+      <c r="M4" s="42" t="n">
         <f aca="false">SUM(L4:L5)</f>
         <v>90</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="43" t="n">
+      <c r="O4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="40" t="n">
         <f aca="false">I4</f>
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
-      <c r="B5" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="47" t="n">
+      <c r="B5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="46" t="n">
+      <c r="D5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="43" t="n">
         <f aca="false">C5*D5</f>
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="n">
+      <c r="F5" s="45" t="n">
         <f aca="false">100*E5/SUM(E$4:E$5)</f>
         <v>10</v>
       </c>
@@ -3771,16 +3707,16 @@
         <f aca="false">I5*J5</f>
         <v>80</v>
       </c>
-      <c r="L5" s="49" t="n">
+      <c r="L5" s="46" t="n">
         <f aca="false">100*K5/SUM(K$4:K$6)</f>
         <v>80</v>
       </c>
-      <c r="M5" s="45"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="46" t="n">
+      <c r="O5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="43" t="n">
         <f aca="false">I6</f>
         <v>10</v>
       </c>
@@ -3789,38 +3725,38 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="47" t="n">
+      <c r="B6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="46" t="n">
+      <c r="D6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="43" t="n">
         <f aca="false">C6*D6</f>
         <v>4</v>
       </c>
-      <c r="F6" s="48" t="n">
+      <c r="F6" s="45" t="n">
         <f aca="false">100*E6/SUM(E$6:E$7)</f>
         <v>10</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="51" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="52" t="n">
+      <c r="H6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="49" t="n">
         <f aca="false">I6*J6</f>
         <v>10</v>
       </c>
-      <c r="L6" s="52" t="n">
+      <c r="L6" s="49" t="n">
         <f aca="false">100*K6/SUM(K$4:K$6)</f>
         <v>10</v>
       </c>
@@ -3831,62 +3767,62 @@
       <c r="N6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="46" t="n">
+      <c r="O6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="43" t="n">
         <f aca="false">I7</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
-      <c r="B7" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="44" t="n">
+      <c r="B7" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="43" t="n">
+      <c r="D7" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="E7" s="43" t="n">
+      <c r="E7" s="40" t="n">
         <f aca="false">C7*D7</f>
         <v>36</v>
       </c>
-      <c r="F7" s="53" t="n">
+      <c r="F7" s="50" t="n">
         <f aca="false">100*E7/SUM(E$6:E$7)</f>
         <v>90</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="56" t="n">
+      <c r="H7" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="53" t="n">
         <f aca="false">I7*J7</f>
         <v>10</v>
       </c>
-      <c r="L7" s="56" t="n">
+      <c r="L7" s="53" t="n">
         <f aca="false">K7*100/SUM(K$7:K$9)</f>
         <v>10</v>
       </c>
-      <c r="M7" s="57" t="n">
+      <c r="M7" s="54" t="n">
         <f aca="false">L7</f>
         <v>10</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="43" t="n">
+      <c r="O7" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="40" t="n">
         <f aca="false">I8</f>
         <v>10</v>
       </c>
@@ -3895,72 +3831,72 @@
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="43" t="n">
+      <c r="B8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="43" t="n">
+      <c r="D8" s="40" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="43" t="n">
+      <c r="E8" s="40" t="n">
         <f aca="false">C8*D8</f>
         <v>28</v>
       </c>
-      <c r="F8" s="53" t="n">
+      <c r="F8" s="50" t="n">
         <f aca="false">100*E8/SUM(E$8:E$9)</f>
         <v>70</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="44" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="43" t="n">
+      <c r="H8" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="40" t="n">
         <f aca="false">I8*J8</f>
         <v>10</v>
       </c>
-      <c r="L8" s="43" t="n">
+      <c r="L8" s="40" t="n">
         <f aca="false">K8*100/SUM(K$7:K$9)</f>
         <v>10</v>
       </c>
-      <c r="M8" s="45" t="n">
+      <c r="M8" s="42" t="n">
         <f aca="false">SUM(L8:L9)</f>
         <v>90</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="43" t="n">
+      <c r="O8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="40" t="n">
         <f aca="false">I10</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
-      <c r="B9" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="47" t="n">
+      <c r="B9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="46" t="n">
+      <c r="D9" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="46" t="n">
+      <c r="E9" s="43" t="n">
         <f aca="false">C9*D9</f>
         <v>12</v>
       </c>
-      <c r="F9" s="48" t="n">
+      <c r="F9" s="45" t="n">
         <f aca="false">100*E9/SUM(E$8:E$9)</f>
         <v>30</v>
       </c>
@@ -3978,16 +3914,16 @@
         <f aca="false">I9*J9</f>
         <v>80</v>
       </c>
-      <c r="L9" s="59" t="n">
+      <c r="L9" s="56" t="n">
         <f aca="false">K9*100/SUM(K$7:K$9)</f>
         <v>80</v>
       </c>
-      <c r="M9" s="45"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="46" t="n">
+      <c r="O9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="43" t="n">
         <f aca="false">I12</f>
         <v>10</v>
       </c>
@@ -3996,74 +3932,74 @@
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="47" t="n">
+      <c r="B10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="46" t="n">
+      <c r="D10" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="46" t="n">
+      <c r="E10" s="43" t="n">
         <f aca="false">C10*D10</f>
         <v>12</v>
       </c>
-      <c r="F10" s="48" t="n">
+      <c r="F10" s="45" t="n">
         <f aca="false">100*E10/SUM(E$10:E$11)</f>
         <v>30</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="61" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="61" t="n">
+      <c r="H10" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="58" t="n">
         <f aca="false">I10*J10</f>
         <v>10</v>
       </c>
-      <c r="L10" s="61" t="n">
+      <c r="L10" s="58" t="n">
         <f aca="false">ROUNDDOWN(K10*100/SUM(K$10:K$12),0)</f>
         <v>28</v>
       </c>
-      <c r="M10" s="62" t="n">
+      <c r="M10" s="59" t="n">
         <f aca="false">ROUNDDOWN(SUM(L10:L11),0)</f>
         <v>70</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="46" t="n">
+      <c r="O10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="43" t="n">
         <f aca="false">I13</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
-      <c r="B11" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="43" t="n">
+      <c r="B11" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="43" t="n">
+      <c r="D11" s="40" t="n">
         <v>7</v>
       </c>
-      <c r="E11" s="43" t="n">
+      <c r="E11" s="40" t="n">
         <f aca="false">C11*D11</f>
         <v>28</v>
       </c>
-      <c r="F11" s="53" t="n">
+      <c r="F11" s="50" t="n">
         <f aca="false">100*E11/SUM(E$10:E$11)</f>
         <v>70</v>
       </c>
@@ -4081,16 +4017,16 @@
         <f aca="false">I11*J11</f>
         <v>15</v>
       </c>
-      <c r="L11" s="49" t="n">
+      <c r="L11" s="46" t="n">
         <f aca="false">ROUNDDOWN(K11*100/SUM(K$10:K$12),0)</f>
         <v>42</v>
       </c>
-      <c r="M11" s="45"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="43" t="n">
+      <c r="O11" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="40" t="n">
         <f aca="false">I14</f>
         <v>10</v>
       </c>
@@ -4099,38 +4035,38 @@
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="43" t="n">
+      <c r="B12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="43" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="43" t="n">
+      <c r="D12" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="40" t="n">
         <f aca="false">C12*D12</f>
         <v>20</v>
       </c>
-      <c r="F12" s="53" t="n">
+      <c r="F12" s="50" t="n">
         <f aca="false">100*E12/SUM(E$12:E$13)</f>
         <v>50</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="51" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="52" t="n">
+      <c r="H12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="49" t="n">
         <f aca="false">I12*J12</f>
         <v>10</v>
       </c>
-      <c r="L12" s="52" t="n">
+      <c r="L12" s="49" t="n">
         <f aca="false">ROUNDUP(K12*100/SUM(K$10:K$12),0)</f>
         <v>29</v>
       </c>
@@ -4141,62 +4077,62 @@
       <c r="N12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="63" t="n">
+      <c r="O12" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="60" t="n">
         <f aca="false">I16</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
-      <c r="B13" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="47" t="n">
+      <c r="B13" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="46" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="46" t="n">
+      <c r="D13" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="43" t="n">
         <f aca="false">C13*D13</f>
         <v>20</v>
       </c>
-      <c r="F13" s="48" t="n">
+      <c r="F13" s="45" t="n">
         <f aca="false">100*E13/SUM(E$13:E$14)</f>
         <v>50</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="56" t="n">
+      <c r="H13" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="53" t="n">
         <f aca="false">I13*J13</f>
         <v>10</v>
       </c>
-      <c r="L13" s="56" t="n">
+      <c r="L13" s="53" t="n">
         <f aca="false">ROUNDUP(K13*100/SUM(K$13:K$15),0)</f>
         <v>29</v>
       </c>
-      <c r="M13" s="57" t="n">
+      <c r="M13" s="54" t="n">
         <f aca="false">ROUNDUP(L13,0)</f>
         <v>29</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="63" t="n">
+      <c r="O13" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="60" t="n">
         <f aca="false">I18</f>
         <v>5</v>
       </c>
@@ -4205,72 +4141,72 @@
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="47" t="n">
+      <c r="B14" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="46" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="46" t="n">
+      <c r="D14" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="43" t="n">
         <f aca="false">C14*D14</f>
         <v>20</v>
       </c>
-      <c r="F14" s="48" t="n">
+      <c r="F14" s="45" t="n">
         <f aca="false">100*E14/SUM(E$14:E$15)</f>
         <v>50</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="43" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="43" t="n">
+      <c r="H14" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="40" t="n">
         <f aca="false">I14*J14</f>
         <v>10</v>
       </c>
-      <c r="L14" s="43" t="n">
+      <c r="L14" s="40" t="n">
         <f aca="false">ROUNDDOWN(K14*100/SUM(K$13:K$15),0)</f>
         <v>28</v>
       </c>
-      <c r="M14" s="45" t="n">
+      <c r="M14" s="42" t="n">
         <f aca="false">ROUNDDOWN(SUM(L14:L15),0)</f>
         <v>70</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="63" t="n">
+      <c r="O14" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="60" t="n">
         <f aca="false">I20</f>
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
-      <c r="B15" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="43" t="n">
+      <c r="B15" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="43" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" s="43" t="n">
+      <c r="D15" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="40" t="n">
         <f aca="false">C15*D15</f>
         <v>20</v>
       </c>
-      <c r="F15" s="53" t="n">
+      <c r="F15" s="50" t="n">
         <f aca="false">100*E15/SUM(E$14:E$15)</f>
         <v>50</v>
       </c>
@@ -4288,16 +4224,16 @@
         <f aca="false">I15*J15</f>
         <v>15</v>
       </c>
-      <c r="L15" s="59" t="n">
+      <c r="L15" s="56" t="n">
         <f aca="false">ROUNDDOWN(K15*100/SUM(K$13:K$15),0)</f>
         <v>42</v>
       </c>
-      <c r="M15" s="45"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="63" t="n">
+      <c r="O15" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="60" t="n">
         <f aca="false">I22</f>
         <v>5</v>
       </c>
@@ -4306,31 +4242,31 @@
       <c r="G16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="65" t="n">
+      <c r="H16" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="62" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="62" t="n">
         <f aca="false">I16*J16</f>
         <v>5</v>
       </c>
-      <c r="L16" s="65" t="n">
+      <c r="L16" s="62" t="n">
         <f aca="false">K16*100/SUM(K$16:K$19)</f>
         <v>16.6666666666667</v>
       </c>
-      <c r="M16" s="66" t="n">
+      <c r="M16" s="63" t="n">
         <f aca="false">SUM(L16:L17)</f>
         <v>50</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="36" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="0" t="n">
@@ -4340,26 +4276,26 @@
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="10"/>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="67" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" s="67" t="n">
+      <c r="I17" s="64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" s="64" t="n">
         <f aca="false">I17*J17</f>
         <v>10</v>
       </c>
-      <c r="L17" s="67" t="n">
+      <c r="L17" s="64" t="n">
         <f aca="false">K17*100/SUM(K$16:K$19)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M17" s="68"/>
+      <c r="M17" s="65"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="36" t="s">
         <v>12</v>
       </c>
       <c r="P17" s="0" t="n">
@@ -4369,24 +4305,24 @@
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="10"/>
-      <c r="H18" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="71" t="n">
+      <c r="H18" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="68" t="n">
         <f aca="false">I18*J18</f>
         <v>5</v>
       </c>
-      <c r="L18" s="71" t="n">
+      <c r="L18" s="68" t="n">
         <f aca="false">K18*100/SUM(K$16:K$19)</f>
         <v>16.6666666666667</v>
       </c>
-      <c r="M18" s="68" t="n">
+      <c r="M18" s="65" t="n">
         <f aca="false">SUM(L18:L19)</f>
         <v>50</v>
       </c>
@@ -4394,127 +4330,127 @@
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="10"/>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="67" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" s="67" t="n">
+      <c r="I19" s="64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" s="64" t="n">
         <f aca="false">I19*J19</f>
         <v>10</v>
       </c>
-      <c r="L19" s="67" t="n">
+      <c r="L19" s="64" t="n">
         <f aca="false">K19*100/SUM(K$16:K$19)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M19" s="72"/>
+      <c r="M19" s="69"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="31"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="73" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="65" t="n">
+      <c r="H20" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="62" t="n">
         <f aca="false">I20*J20</f>
         <v>5</v>
       </c>
-      <c r="L20" s="65" t="n">
+      <c r="L20" s="62" t="n">
         <f aca="false">K20*100/SUM(K$20:K$23)</f>
         <v>16.6666666666667</v>
       </c>
-      <c r="M20" s="74" t="n">
+      <c r="M20" s="71" t="n">
         <f aca="false">SUM(L20:L21)</f>
         <v>50</v>
       </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="31"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="3"/>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="67" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" s="67" t="n">
+      <c r="I21" s="64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" s="64" t="n">
         <f aca="false">I21*J21</f>
         <v>10</v>
       </c>
-      <c r="L21" s="67" t="n">
+      <c r="L21" s="64" t="n">
         <f aca="false">K21*100/SUM(K$20:K$23)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M21" s="75"/>
+      <c r="M21" s="72"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G22" s="3"/>
-      <c r="H22" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="76" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="76" t="n">
+      <c r="H22" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="73" t="n">
         <f aca="false">I22*J22</f>
         <v>5</v>
       </c>
-      <c r="L22" s="76" t="n">
+      <c r="L22" s="73" t="n">
         <f aca="false">K22*100/SUM(K$20:K$23)</f>
         <v>16.6666666666667</v>
       </c>
-      <c r="M22" s="68" t="n">
+      <c r="M22" s="65" t="n">
         <f aca="false">SUM(L22:L23)</f>
         <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="3"/>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="67" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" s="67" t="n">
+      <c r="I23" s="64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" s="64" t="n">
         <f aca="false">I23*J23</f>
         <v>10</v>
       </c>
-      <c r="L23" s="67" t="n">
+      <c r="L23" s="64" t="n">
         <f aca="false">K23*100/SUM(K$20:K$23)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M23" s="68"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="31"/>
+      <c r="H26" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4538,7 +4474,7 @@
       <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.5"/>
@@ -5517,7 +5453,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -5717,53 +5653,53 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="33" t="s">
+      <c r="A28" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D28" s="33" t="n">
+      <c r="D28" s="30" t="n">
         <v>18</v>
       </c>
-      <c r="E28" s="33" t="n">
+      <c r="E28" s="30" t="n">
         <f aca="false">C28*D28</f>
         <v>36</v>
       </c>
-      <c r="F28" s="33" t="n">
+      <c r="F28" s="30" t="n">
         <f aca="false">E28*100/SUM(E$6:E$7)</f>
         <v>900</v>
       </c>
-      <c r="G28" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="33" t="s">
+      <c r="G28" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="J28" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="33" t="n">
+      <c r="J28" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="30" t="n">
         <f aca="false">I28*J28</f>
         <v>20</v>
       </c>
-      <c r="L28" s="33" t="n">
+      <c r="L28" s="30" t="n">
         <f aca="false">100*K28/SUM(K$6:K$7)</f>
         <v>125</v>
       </c>
       <c r="M28" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="N28" s="32" t="s">
+      <c r="N28" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="33" t="s">
+      <c r="O28" s="30" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="8" t="n">
@@ -5772,47 +5708,47 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D29" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="35" t="n">
+      <c r="D29" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="32" t="n">
         <f aca="false">C29*D29</f>
         <v>4</v>
       </c>
-      <c r="F29" s="35" t="n">
+      <c r="F29" s="32" t="n">
         <f aca="false">E29*100/SUM(E$6:E$7)</f>
         <v>100</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="35" t="s">
+      <c r="G29" s="33"/>
+      <c r="H29" s="32" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="J29" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="35" t="n">
+      <c r="J29" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="32" t="n">
         <f aca="false">I29*J29</f>
         <v>20</v>
       </c>
-      <c r="L29" s="35" t="n">
+      <c r="L29" s="32" t="n">
         <f aca="false">100*K29/SUM(K$6:K$7)</f>
         <v>125</v>
       </c>
-      <c r="M29" s="35" t="n">
-        <v>50</v>
-      </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="35" t="s">
+      <c r="M29" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="N29" s="33"/>
+      <c r="O29" s="32" t="s">
         <v>12</v>
       </c>
       <c r="P29" s="11" t="n">
@@ -5821,51 +5757,51 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D30" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="37" t="n">
+      <c r="D30" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="34" t="n">
         <f aca="false">C30*D30</f>
         <v>4</v>
       </c>
-      <c r="F30" s="37" t="n">
+      <c r="F30" s="34" t="n">
         <f aca="false">E30*100/SUM(E$6:E$7)</f>
         <v>100</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="34" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="J30" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="37" t="n">
+      <c r="J30" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="34" t="n">
         <f aca="false">I30*J30</f>
         <v>20</v>
       </c>
-      <c r="L30" s="37" t="n">
+      <c r="L30" s="34" t="n">
         <f aca="false">K30*100/SUM(K$8:K$9)</f>
         <v>83.3333333333333</v>
       </c>
       <c r="M30" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="N30" s="32"/>
-      <c r="O30" s="37" t="s">
+      <c r="N30" s="29"/>
+      <c r="O30" s="34" t="s">
         <v>11</v>
       </c>
       <c r="P30" s="16" t="n">
@@ -5874,47 +5810,47 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34"/>
-      <c r="B31" s="38" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="38" t="n">
+      <c r="D31" s="35" t="n">
         <v>18</v>
       </c>
-      <c r="E31" s="38" t="n">
+      <c r="E31" s="35" t="n">
         <f aca="false">C31*D31</f>
         <v>36</v>
       </c>
-      <c r="F31" s="38" t="n">
+      <c r="F31" s="35" t="n">
         <f aca="false">E31*100/SUM(E$6:E$7)</f>
         <v>900</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="38" t="s">
+      <c r="G31" s="33"/>
+      <c r="H31" s="35" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="J31" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="38" t="n">
+      <c r="J31" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="35" t="n">
         <f aca="false">I31*J31</f>
         <v>20</v>
       </c>
-      <c r="L31" s="38" t="n">
+      <c r="L31" s="35" t="n">
         <f aca="false">K31*100/SUM(K$9:K$10)</f>
         <v>31.25</v>
       </c>
-      <c r="M31" s="38" t="n">
-        <v>50</v>
-      </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="38" t="s">
+      <c r="M31" s="35" t="n">
+        <v>50</v>
+      </c>
+      <c r="N31" s="33"/>
+      <c r="O31" s="35" t="s">
         <v>12</v>
       </c>
       <c r="P31" s="20" t="n">
@@ -5923,53 +5859,53 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="37" t="n">
-        <v>12</v>
-      </c>
-      <c r="E32" s="37" t="n">
+      <c r="D32" s="34" t="n">
+        <v>12</v>
+      </c>
+      <c r="E32" s="34" t="n">
         <f aca="false">C32*D32</f>
         <v>24</v>
       </c>
-      <c r="F32" s="37" t="n">
+      <c r="F32" s="34" t="n">
         <f aca="false">E32*100/SUM(E$10:E$11)</f>
         <v>600</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="34" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="J32" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="37" t="n">
+      <c r="J32" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="34" t="n">
         <f aca="false">I32*J32</f>
         <v>20</v>
       </c>
-      <c r="L32" s="37" t="n">
+      <c r="L32" s="34" t="n">
         <f aca="false">K32*100/SUM(K$10:K$11)</f>
         <v>35.7142857142857</v>
       </c>
       <c r="M32" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="N32" s="32" t="s">
+      <c r="N32" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O32" s="37" t="s">
+      <c r="O32" s="34" t="s">
         <v>11</v>
       </c>
       <c r="P32" s="16" t="n">
@@ -5979,38 +5915,38 @@
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D33" s="38" t="n">
+      <c r="D33" s="35" t="n">
         <v>28</v>
       </c>
-      <c r="E33" s="38" t="n">
+      <c r="E33" s="35" t="n">
         <f aca="false">C33*D33</f>
         <v>56</v>
       </c>
-      <c r="F33" s="38" t="n">
+      <c r="F33" s="35" t="n">
         <f aca="false">E33*100/SUM(E$10:E$11)</f>
         <v>1400</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="35" t="s">
         <v>12</v>
       </c>
       <c r="I33" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="J33" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="38" t="n">
+      <c r="J33" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="35" t="n">
         <f aca="false">I33*J33</f>
         <v>20</v>
       </c>
-      <c r="L33" s="38" t="n">
+      <c r="L33" s="35" t="n">
         <f aca="false">K33*100/SUM(K$10:K$11)</f>
         <v>35.7142857142857</v>
       </c>
@@ -6018,7 +5954,7 @@
         <v>50</v>
       </c>
       <c r="N33" s="10"/>
-      <c r="O33" s="38" t="s">
+      <c r="O33" s="35" t="s">
         <v>12</v>
       </c>
       <c r="P33" s="20" t="n">
@@ -6027,43 +5963,43 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D34" s="33" t="n">
+      <c r="D34" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="E34" s="33" t="n">
+      <c r="E34" s="30" t="n">
         <f aca="false">C34*D34</f>
         <v>56</v>
       </c>
-      <c r="F34" s="33" t="n">
+      <c r="F34" s="30" t="n">
         <f aca="false">E34*100/SUM(E$10:E$11)</f>
         <v>1400</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I34" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="J34" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="33" t="n">
+      <c r="J34" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="30" t="n">
         <f aca="false">I34*J34</f>
         <v>20</v>
       </c>
-      <c r="L34" s="33" t="n">
+      <c r="L34" s="30" t="n">
         <f aca="false">K34*100/SUM(K$10:K$11)</f>
         <v>35.7142857142857</v>
       </c>
@@ -6071,7 +6007,7 @@
         <v>50</v>
       </c>
       <c r="N34" s="5"/>
-      <c r="O34" s="33" t="s">
+      <c r="O34" s="30" t="s">
         <v>11</v>
       </c>
       <c r="P34" s="8" t="n">
@@ -6081,38 +6017,38 @@
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="35" t="n">
-        <v>12</v>
-      </c>
-      <c r="E35" s="35" t="n">
+      <c r="D35" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="E35" s="32" t="n">
         <f aca="false">C35*D35</f>
         <v>24</v>
       </c>
-      <c r="F35" s="35" t="n">
+      <c r="F35" s="32" t="n">
         <f aca="false">E35*100/SUM(E$10:E$11)</f>
         <v>600</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="35" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="32" t="s">
         <v>12</v>
       </c>
       <c r="I35" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="J35" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="35" t="n">
+      <c r="J35" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="32" t="n">
         <f aca="false">I35*J35</f>
         <v>20</v>
       </c>
-      <c r="L35" s="35" t="n">
+      <c r="L35" s="32" t="n">
         <f aca="false">K35*100/SUM(K$10:K$11)</f>
         <v>35.7142857142857</v>
       </c>
@@ -6120,7 +6056,7 @@
         <v>50</v>
       </c>
       <c r="N35" s="10"/>
-      <c r="O35" s="35" t="s">
+      <c r="O35" s="32" t="s">
         <v>12</v>
       </c>
       <c r="P35" s="11" t="n">
@@ -6153,7 +6089,7 @@
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N37" s="3"/>
-      <c r="O37" s="39" t="s">
+      <c r="O37" s="36" t="s">
         <v>12</v>
       </c>
       <c r="P37" s="0" t="n">
@@ -6227,53 +6163,53 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="33" t="n">
+      <c r="D41" s="30" t="n">
         <v>18</v>
       </c>
-      <c r="E41" s="33" t="n">
+      <c r="E41" s="30" t="n">
         <f aca="false">C41*D41</f>
         <v>36</v>
       </c>
-      <c r="F41" s="33" t="n">
+      <c r="F41" s="30" t="n">
         <f aca="false">E41*100/SUM(E$6:E$7)</f>
         <v>900</v>
       </c>
-      <c r="G41" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="33" t="s">
+      <c r="G41" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I41" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="J41" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="33" t="n">
+      <c r="J41" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="30" t="n">
         <f aca="false">I41*J41</f>
         <v>20</v>
       </c>
-      <c r="L41" s="33" t="n">
+      <c r="L41" s="30" t="n">
         <f aca="false">100*K41/SUM(K$6:K$7)</f>
         <v>125</v>
       </c>
       <c r="M41" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="N41" s="32" t="s">
+      <c r="N41" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="33" t="s">
+      <c r="O41" s="30" t="s">
         <v>11</v>
       </c>
       <c r="P41" s="8" t="n">
@@ -6282,47 +6218,47 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" s="35" t="n">
+      <c r="D42" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="32" t="n">
         <f aca="false">C42*D42</f>
         <v>4</v>
       </c>
-      <c r="F42" s="35" t="n">
+      <c r="F42" s="32" t="n">
         <f aca="false">E42*100/SUM(E$6:E$7)</f>
         <v>100</v>
       </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="35" t="s">
+      <c r="G42" s="33"/>
+      <c r="H42" s="32" t="s">
         <v>12</v>
       </c>
       <c r="I42" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="J42" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="35" t="n">
+      <c r="J42" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="32" t="n">
         <f aca="false">I42*J42</f>
         <v>20</v>
       </c>
-      <c r="L42" s="35" t="n">
+      <c r="L42" s="32" t="n">
         <f aca="false">100*K42/SUM(K$6:K$7)</f>
         <v>125</v>
       </c>
-      <c r="M42" s="35" t="n">
-        <v>50</v>
-      </c>
-      <c r="N42" s="36"/>
-      <c r="O42" s="35" t="s">
+      <c r="M42" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="N42" s="33"/>
+      <c r="O42" s="32" t="s">
         <v>12</v>
       </c>
       <c r="P42" s="11" t="n">
@@ -6331,51 +6267,51 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="37" t="n">
+      <c r="D43" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="34" t="n">
         <f aca="false">C43*D43</f>
         <v>4</v>
       </c>
-      <c r="F43" s="37" t="n">
+      <c r="F43" s="34" t="n">
         <f aca="false">E43*100/SUM(E$6:E$7)</f>
         <v>100</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="34" t="s">
         <v>11</v>
       </c>
       <c r="I43" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="J43" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="37" t="n">
+      <c r="J43" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="34" t="n">
         <f aca="false">I43*J43</f>
         <v>20</v>
       </c>
-      <c r="L43" s="37" t="n">
+      <c r="L43" s="34" t="n">
         <f aca="false">K43*100/SUM(K$8:K$9)</f>
         <v>83.3333333333333</v>
       </c>
       <c r="M43" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="N43" s="32"/>
-      <c r="O43" s="37" t="s">
+      <c r="N43" s="29"/>
+      <c r="O43" s="34" t="s">
         <v>11</v>
       </c>
       <c r="P43" s="16" t="n">
@@ -6384,47 +6320,47 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="40"/>
-      <c r="B44" s="38" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="38" t="n">
+      <c r="D44" s="35" t="n">
         <v>18</v>
       </c>
-      <c r="E44" s="38" t="n">
+      <c r="E44" s="35" t="n">
         <f aca="false">C44*D44</f>
         <v>36</v>
       </c>
-      <c r="F44" s="38" t="n">
+      <c r="F44" s="35" t="n">
         <f aca="false">E44*100/SUM(E$6:E$7)</f>
         <v>900</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="38" t="s">
+      <c r="G44" s="33"/>
+      <c r="H44" s="35" t="s">
         <v>12</v>
       </c>
       <c r="I44" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="J44" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="38" t="n">
+      <c r="J44" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="35" t="n">
         <f aca="false">I44*J44</f>
         <v>20</v>
       </c>
-      <c r="L44" s="38" t="n">
+      <c r="L44" s="35" t="n">
         <f aca="false">K44*100/SUM(K$9:K$10)</f>
         <v>31.25</v>
       </c>
-      <c r="M44" s="38" t="n">
-        <v>50</v>
-      </c>
-      <c r="N44" s="36"/>
-      <c r="O44" s="38" t="s">
+      <c r="M44" s="35" t="n">
+        <v>50</v>
+      </c>
+      <c r="N44" s="33"/>
+      <c r="O44" s="35" t="s">
         <v>12</v>
       </c>
       <c r="P44" s="20" t="n">
@@ -6436,50 +6372,50 @@
       <c r="A45" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D45" s="41" t="n">
-        <v>10</v>
-      </c>
-      <c r="E45" s="41" t="n">
+      <c r="D45" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" s="38" t="n">
         <f aca="false">C45*D45</f>
         <v>20</v>
       </c>
-      <c r="F45" s="41" t="n">
+      <c r="F45" s="38" t="n">
         <f aca="false">E45*100/SUM(E$10:E$11)</f>
         <v>500</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="38" t="s">
         <v>11</v>
       </c>
       <c r="I45" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="J45" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="41" t="n">
+      <c r="J45" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="38" t="n">
         <f aca="false">I45*J45</f>
         <v>20</v>
       </c>
-      <c r="L45" s="41" t="n">
+      <c r="L45" s="38" t="n">
         <f aca="false">K45*100/SUM(K$10:K$11)</f>
         <v>35.7142857142857</v>
       </c>
       <c r="M45" s="23" t="n">
         <v>50</v>
       </c>
-      <c r="N45" s="32" t="s">
+      <c r="N45" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O45" s="41" t="s">
+      <c r="O45" s="38" t="s">
         <v>11</v>
       </c>
       <c r="P45" s="23" t="n">
@@ -6489,38 +6425,38 @@
     </row>
     <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="D46" s="42" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="42" t="n">
+      <c r="D46" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" s="39" t="n">
         <f aca="false">C46*D46</f>
         <v>20</v>
       </c>
-      <c r="F46" s="42" t="n">
+      <c r="F46" s="39" t="n">
         <f aca="false">E46*100/SUM(E$10:E$11)</f>
         <v>500</v>
       </c>
       <c r="G46" s="10"/>
-      <c r="H46" s="42" t="s">
+      <c r="H46" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I46" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="J46" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="42" t="n">
+      <c r="J46" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="39" t="n">
         <f aca="false">I46*J46</f>
         <v>20</v>
       </c>
-      <c r="L46" s="42" t="n">
+      <c r="L46" s="39" t="n">
         <f aca="false">K46*100/SUM(K$10:K$11)</f>
         <v>35.7142857142857</v>
       </c>
@@ -6528,7 +6464,7 @@
         <v>50</v>
       </c>
       <c r="N46" s="10"/>
-      <c r="O46" s="42" t="s">
+      <c r="O46" s="39" t="s">
         <v>12</v>
       </c>
       <c r="P46" s="25" t="n">
@@ -6540,40 +6476,40 @@
       <c r="A47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="41" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" s="41" t="n">
+      <c r="D47" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" s="38" t="n">
         <f aca="false">C47*D47</f>
         <v>20</v>
       </c>
-      <c r="F47" s="41" t="n">
+      <c r="F47" s="38" t="n">
         <f aca="false">E47*100/SUM(E$10:E$11)</f>
         <v>500</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="38" t="s">
         <v>11</v>
       </c>
       <c r="I47" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="J47" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" s="41" t="n">
+      <c r="J47" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="38" t="n">
         <f aca="false">I47*J47</f>
         <v>20</v>
       </c>
-      <c r="L47" s="41" t="n">
+      <c r="L47" s="38" t="n">
         <f aca="false">K47*100/SUM(K$10:K$11)</f>
         <v>35.7142857142857</v>
       </c>
@@ -6581,7 +6517,7 @@
         <v>50</v>
       </c>
       <c r="N47" s="5"/>
-      <c r="O47" s="41" t="s">
+      <c r="O47" s="38" t="s">
         <v>11</v>
       </c>
       <c r="P47" s="23" t="n">
@@ -6591,38 +6527,38 @@
     </row>
     <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="D48" s="42" t="n">
-        <v>10</v>
-      </c>
-      <c r="E48" s="42" t="n">
+      <c r="D48" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" s="39" t="n">
         <f aca="false">C48*D48</f>
         <v>20</v>
       </c>
-      <c r="F48" s="42" t="n">
+      <c r="F48" s="39" t="n">
         <f aca="false">E48*100/SUM(E$10:E$11)</f>
         <v>500</v>
       </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="42" t="s">
+      <c r="G48" s="9"/>
+      <c r="H48" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I48" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="J48" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="42" t="n">
+      <c r="J48" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="39" t="n">
         <f aca="false">I48*J48</f>
         <v>20</v>
       </c>
-      <c r="L48" s="42" t="n">
+      <c r="L48" s="39" t="n">
         <f aca="false">K48*100/SUM(K$10:K$11)</f>
         <v>35.7142857142857</v>
       </c>
@@ -6630,7 +6566,7 @@
         <v>50</v>
       </c>
       <c r="N48" s="10"/>
-      <c r="O48" s="42" t="s">
+      <c r="O48" s="39" t="s">
         <v>12</v>
       </c>
       <c r="P48" s="25" t="n">
@@ -6674,7 +6610,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
-      <c r="N50" s="27"/>
+      <c r="N50" s="9"/>
       <c r="O50" s="9" t="s">
         <v>12</v>
       </c>
@@ -6755,98 +6691,98 @@
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="78" t="n">
+      <c r="B54" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D54" s="77" t="n">
+      <c r="D54" s="74" t="n">
         <v>9</v>
       </c>
-      <c r="E54" s="77" t="n">
+      <c r="E54" s="74" t="n">
         <v>36</v>
       </c>
-      <c r="F54" s="77" t="n">
+      <c r="F54" s="74" t="n">
         <v>90</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H54" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J54" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L54" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="M54" s="77" t="n">
+      <c r="H54" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L54" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="M54" s="74" t="n">
         <v>90</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O54" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="P54" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q54" s="77" t="n">
+      <c r="O54" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="P54" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="74" t="n">
         <f aca="false">100*P54/SUM(P$54:P$55)</f>
         <v>50</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
-      <c r="B55" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="78" t="n">
+      <c r="B55" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D55" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="77" t="n">
+      <c r="D55" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="F55" s="77" t="n">
+      <c r="F55" s="74" t="n">
         <v>10</v>
       </c>
       <c r="G55" s="10"/>
-      <c r="H55" s="77" t="s">
+      <c r="H55" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" s="77" t="n">
+      <c r="I55" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" s="74" t="n">
         <v>16</v>
       </c>
-      <c r="K55" s="77" t="n">
+      <c r="K55" s="74" t="n">
         <v>80</v>
       </c>
-      <c r="L55" s="77" t="n">
+      <c r="L55" s="74" t="n">
         <v>80</v>
       </c>
-      <c r="M55" s="77"/>
+      <c r="M55" s="74"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="P55" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q55" s="77" t="n">
+      <c r="O55" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P55" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="74" t="n">
         <f aca="false">100*P55/SUM(P$54:P$55)</f>
         <v>50</v>
       </c>
@@ -6855,100 +6791,100 @@
       <c r="A56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="78" t="n">
+      <c r="B56" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D56" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="77" t="n">
+      <c r="D56" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="F56" s="77" t="n">
+      <c r="F56" s="74" t="n">
         <v>10</v>
       </c>
       <c r="G56" s="10"/>
-      <c r="H56" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J56" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L56" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="M56" s="77" t="n">
+      <c r="H56" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="J56" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L56" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="M56" s="74" t="n">
         <v>10</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O56" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="P56" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q56" s="77" t="n">
+      <c r="O56" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="P56" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="74" t="n">
         <f aca="false">100*P56/SUM(P$54:P$55)</f>
         <v>50</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
-      <c r="B57" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="78" t="n">
+      <c r="B57" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D57" s="77" t="n">
+      <c r="D57" s="74" t="n">
         <v>9</v>
       </c>
-      <c r="E57" s="77" t="n">
+      <c r="E57" s="74" t="n">
         <v>36</v>
       </c>
-      <c r="F57" s="77" t="n">
+      <c r="F57" s="74" t="n">
         <v>90</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J57" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L57" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="M57" s="77" t="n">
+      <c r="H57" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="J57" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L57" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="M57" s="74" t="n">
         <v>10</v>
       </c>
       <c r="N57" s="3"/>
-      <c r="O57" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="P57" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="77" t="n">
+      <c r="O57" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="74" t="n">
         <f aca="false">100*P57/SUM(P$54:P$55)</f>
         <v>50</v>
       </c>
@@ -6957,96 +6893,96 @@
       <c r="A58" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="78" t="n">
+      <c r="B58" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D58" s="77" t="n">
+      <c r="D58" s="74" t="n">
         <v>7</v>
       </c>
-      <c r="E58" s="77" t="n">
+      <c r="E58" s="74" t="n">
         <v>28</v>
       </c>
-      <c r="F58" s="77" t="n">
+      <c r="F58" s="74" t="n">
         <v>70</v>
       </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J58" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L58" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="M58" s="77" t="n">
+      <c r="H58" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="J58" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L58" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="M58" s="74" t="n">
         <v>90</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O58" s="45" t="s">
+      <c r="O58" s="42" t="s">
         <v>11</v>
       </c>
       <c r="P58" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="Q58" s="45" t="n">
+      <c r="Q58" s="42" t="n">
         <f aca="false">100*P58/SUM(P$54:P$55)</f>
         <v>50</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
-      <c r="B59" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="78" t="n">
+      <c r="B59" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D59" s="77" t="n">
+      <c r="D59" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="E59" s="77" t="n">
-        <v>12</v>
-      </c>
-      <c r="F59" s="77" t="n">
+      <c r="E59" s="74" t="n">
+        <v>12</v>
+      </c>
+      <c r="F59" s="74" t="n">
         <v>30</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="77" t="s">
+      <c r="H59" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" s="77" t="n">
+      <c r="I59" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J59" s="74" t="n">
         <v>16</v>
       </c>
-      <c r="K59" s="77" t="n">
+      <c r="K59" s="74" t="n">
         <v>80</v>
       </c>
-      <c r="L59" s="77" t="n">
+      <c r="L59" s="74" t="n">
         <v>80</v>
       </c>
-      <c r="M59" s="77"/>
+      <c r="M59" s="74"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="45" t="s">
+      <c r="O59" s="42" t="s">
         <v>12</v>
       </c>
       <c r="P59" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="Q59" s="45" t="n">
+      <c r="Q59" s="42" t="n">
         <f aca="false">100*P59/SUM(P$54:P$55)</f>
         <v>50</v>
       </c>
@@ -7055,98 +6991,98 @@
       <c r="A60" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="78" t="n">
+      <c r="B60" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D60" s="77" t="n">
+      <c r="D60" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="E60" s="77" t="n">
-        <v>12</v>
-      </c>
-      <c r="F60" s="77" t="n">
+      <c r="E60" s="74" t="n">
+        <v>12</v>
+      </c>
+      <c r="F60" s="74" t="n">
         <v>30</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J60" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L60" s="77" t="n">
+      <c r="H60" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L60" s="74" t="n">
         <v>28.5714285714286</v>
       </c>
-      <c r="M60" s="77" t="n">
+      <c r="M60" s="74" t="n">
         <v>71</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O60" s="45" t="s">
+      <c r="O60" s="42" t="s">
         <v>11</v>
       </c>
       <c r="P60" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="Q60" s="45" t="n">
+      <c r="Q60" s="42" t="n">
         <f aca="false">100*P60/SUM(P$54:P$55)</f>
         <v>50</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
-      <c r="B61" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="78" t="n">
+      <c r="B61" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D61" s="77" t="n">
+      <c r="D61" s="74" t="n">
         <v>7</v>
       </c>
-      <c r="E61" s="77" t="n">
+      <c r="E61" s="74" t="n">
         <v>28</v>
       </c>
-      <c r="F61" s="77" t="n">
+      <c r="F61" s="74" t="n">
         <v>70</v>
       </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="77" t="s">
+      <c r="H61" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J61" s="77" t="n">
+      <c r="I61" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="K61" s="77" t="n">
+      <c r="K61" s="74" t="n">
         <v>15</v>
       </c>
-      <c r="L61" s="77" t="n">
+      <c r="L61" s="74" t="n">
         <v>42.8571428571429</v>
       </c>
-      <c r="M61" s="77"/>
+      <c r="M61" s="74"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="45" t="s">
+      <c r="O61" s="42" t="s">
         <v>12</v>
       </c>
       <c r="P61" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="Q61" s="45" t="n">
+      <c r="Q61" s="42" t="n">
         <f aca="false">100*P61/SUM(P$54:P$55)</f>
         <v>50</v>
       </c>
@@ -7155,100 +7091,100 @@
       <c r="A62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="78" t="n">
+      <c r="B62" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D62" s="77" t="n">
-        <v>5</v>
-      </c>
-      <c r="E62" s="77" t="n">
-        <v>20</v>
-      </c>
-      <c r="F62" s="77" t="n">
+      <c r="D62" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="F62" s="74" t="n">
         <v>50</v>
       </c>
       <c r="G62" s="10"/>
-      <c r="H62" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J62" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L62" s="77" t="n">
+      <c r="H62" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="J62" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L62" s="74" t="n">
         <v>28.5714285714286</v>
       </c>
-      <c r="M62" s="77" t="n">
+      <c r="M62" s="74" t="n">
         <v>29</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O62" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="P62" s="80" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="79" t="n">
+      <c r="O62" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="P62" s="77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="76" t="n">
         <f aca="false">100*P62/SUM(P$62:P$63)</f>
         <v>50</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
-      <c r="B63" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="78" t="n">
+      <c r="B63" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D63" s="77" t="n">
-        <v>5</v>
-      </c>
-      <c r="E63" s="77" t="n">
-        <v>20</v>
-      </c>
-      <c r="F63" s="77" t="n">
+      <c r="D63" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="F63" s="74" t="n">
         <v>50</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H63" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J63" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L63" s="77" t="n">
+      <c r="H63" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="J63" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L63" s="74" t="n">
         <v>28.5714285714286</v>
       </c>
-      <c r="M63" s="77" t="n">
+      <c r="M63" s="74" t="n">
         <v>29</v>
       </c>
       <c r="N63" s="3"/>
-      <c r="O63" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="P63" s="80" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q63" s="79" t="n">
+      <c r="O63" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="P63" s="77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" s="76" t="n">
         <f aca="false">100*P64/SUM(P$64:P$65)</f>
         <v>50</v>
       </c>
@@ -7257,96 +7193,96 @@
       <c r="A64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="78" t="n">
+      <c r="B64" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D64" s="77" t="n">
-        <v>5</v>
-      </c>
-      <c r="E64" s="77" t="n">
-        <v>20</v>
-      </c>
-      <c r="F64" s="77" t="n">
+      <c r="D64" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="F64" s="74" t="n">
         <v>50</v>
       </c>
       <c r="G64" s="10"/>
-      <c r="H64" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J64" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L64" s="77" t="n">
+      <c r="H64" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="75" t="n">
+        <v>10</v>
+      </c>
+      <c r="J64" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L64" s="74" t="n">
         <v>28.5714285714286</v>
       </c>
-      <c r="M64" s="77" t="n">
+      <c r="M64" s="74" t="n">
         <v>71</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="P64" s="80" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q64" s="79" t="n">
+      <c r="O64" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="P64" s="77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="76" t="n">
         <f aca="false">100*P64/SUM(P$54:P$55)</f>
         <v>25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
-      <c r="B65" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="78" t="n">
+      <c r="B65" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="D65" s="77" t="n">
-        <v>5</v>
-      </c>
-      <c r="E65" s="77" t="n">
-        <v>20</v>
-      </c>
-      <c r="F65" s="77" t="n">
+      <c r="D65" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="F65" s="74" t="n">
         <v>50</v>
       </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="77" t="s">
+      <c r="H65" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" s="77" t="n">
+      <c r="I65" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="K65" s="77" t="n">
+      <c r="K65" s="74" t="n">
         <v>15</v>
       </c>
-      <c r="L65" s="77" t="n">
+      <c r="L65" s="74" t="n">
         <v>42.8571428571429</v>
       </c>
-      <c r="M65" s="77"/>
+      <c r="M65" s="74"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="P65" s="80" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q65" s="79" t="n">
+      <c r="O65" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="P65" s="77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="76" t="n">
         <f aca="false">100*P65/SUM(P$64:P$65)</f>
         <v>50</v>
       </c>
@@ -7355,194 +7291,194 @@
       <c r="G66" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" s="77" t="n">
-        <v>5</v>
-      </c>
-      <c r="L66" s="77" t="n">
+      <c r="H66" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="L66" s="74" t="n">
         <v>16.6666666666667</v>
       </c>
-      <c r="M66" s="77" t="n">
+      <c r="M66" s="74" t="n">
         <v>50</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O66" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="P66" s="82" t="n">
+      <c r="O66" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="P66" s="79" t="n">
         <v>40</v>
       </c>
-      <c r="Q66" s="81" t="n">
+      <c r="Q66" s="78" t="n">
         <f aca="false">100*P66/SUM(P$66:P$67)</f>
         <v>50</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G67" s="10"/>
-      <c r="H67" s="77" t="s">
+      <c r="H67" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J67" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="K67" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L67" s="77" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="M67" s="77"/>
+      <c r="I67" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L67" s="74" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="M67" s="74"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="P67" s="82" t="n">
+      <c r="O67" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="P67" s="79" t="n">
         <v>40</v>
       </c>
-      <c r="Q67" s="81" t="n">
+      <c r="Q67" s="78" t="n">
         <f aca="false">100*P67/SUM(P$66:P$67)</f>
         <v>50</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G68" s="10"/>
-      <c r="H68" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" s="77" t="n">
-        <v>5</v>
-      </c>
-      <c r="L68" s="77" t="n">
+      <c r="H68" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J68" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="L68" s="74" t="n">
         <v>16.6666666666667</v>
       </c>
-      <c r="M68" s="77" t="n">
+      <c r="M68" s="74" t="n">
         <v>50</v>
       </c>
       <c r="N68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G69" s="10"/>
-      <c r="H69" s="77" t="s">
+      <c r="H69" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J69" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="K69" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L69" s="77" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="M69" s="77"/>
+      <c r="I69" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J69" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L69" s="74" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="M69" s="74"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="31"/>
+      <c r="O69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G70" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H70" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" s="77" t="n">
-        <v>5</v>
-      </c>
-      <c r="L70" s="77" t="n">
+      <c r="H70" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="L70" s="74" t="n">
         <v>16.6666666666667</v>
       </c>
-      <c r="M70" s="77" t="n">
+      <c r="M70" s="74" t="n">
         <v>50</v>
       </c>
       <c r="N70" s="3"/>
-      <c r="O70" s="31"/>
+      <c r="O70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G71" s="3"/>
-      <c r="H71" s="77" t="s">
+      <c r="H71" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J71" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="K71" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L71" s="77" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="M71" s="77"/>
+      <c r="I71" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L71" s="74" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="M71" s="74"/>
     </row>
     <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G72" s="3"/>
-      <c r="H72" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J72" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" s="77" t="n">
-        <v>5</v>
-      </c>
-      <c r="L72" s="77" t="n">
+      <c r="H72" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J72" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="L72" s="74" t="n">
         <v>16.6666666666667</v>
       </c>
-      <c r="M72" s="77" t="n">
+      <c r="M72" s="74" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G73" s="3"/>
-      <c r="H73" s="77" t="s">
+      <c r="H73" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="I73" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J73" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="K73" s="77" t="n">
-        <v>10</v>
-      </c>
-      <c r="L73" s="77" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="M73" s="77"/>
+      <c r="I73" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="L73" s="74" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="M73" s="74"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B54:F54">
@@ -7629,40 +7565,40 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S34" activeCellId="0" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
@@ -7742,449 +7678,443 @@
       <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="85" t="s">
+      <c r="Q3" s="82" t="s">
         <v>9</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="86" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" s="87" t="n">
+      <c r="B4" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="83" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" s="84" t="n">
         <f aca="false">C4*D4</f>
         <v>16</v>
       </c>
-      <c r="F4" s="87" t="n">
+      <c r="F4" s="84" t="n">
         <f aca="false">100*E4/SUM(E$4:E$6)</f>
         <v>80</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J4" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="86" t="n">
-        <f aca="false">J4*I4</f>
-        <v>16</v>
-      </c>
-      <c r="L4" s="86" t="n">
+      <c r="H4" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="83" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" s="83" t="n">
         <f aca="false">100*K4/SUM(K$4:K$7)</f>
-        <v>20</v>
-      </c>
-      <c r="M4" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" s="83" t="n">
         <f aca="false">100*SUM(K4:K5)/SUM(K$4:K$7)</f>
         <v>80</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="86" t="n">
-        <v>16</v>
+      <c r="O4" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="83" t="n">
+        <v>8</v>
       </c>
       <c r="Q4" s="4" t="n">
         <f aca="false">P4/SUM(P4:P6)*100</f>
-        <v>50</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
-      <c r="B5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="88" t="n">
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="86" t="n">
         <f aca="false">C5*D5</f>
         <v>2</v>
       </c>
-      <c r="F5" s="88" t="n">
+      <c r="F5" s="86" t="n">
         <f aca="false">100*E5/SUM(E$4:E$6)</f>
         <v>10</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" s="27" t="n">
-        <f aca="false">J5*I5</f>
-        <v>48</v>
-      </c>
-      <c r="L5" s="27" t="n">
+      <c r="I5" s="87" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>56</v>
+      </c>
+      <c r="L5" s="9" t="n">
         <f aca="false">100*K5/SUM(K$4:K$7)</f>
-        <v>60</v>
-      </c>
-      <c r="M5" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="M5" s="9"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="27" t="n">
+      <c r="O5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="9" t="n">
         <v>8</v>
       </c>
       <c r="Q5" s="4" t="n">
         <f aca="false">P5/SUM(P4:P6)*100</f>
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="88" t="n">
+      <c r="C6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="86" t="n">
         <f aca="false">C6*D6</f>
         <v>2</v>
       </c>
-      <c r="F6" s="88" t="n">
+      <c r="F6" s="86" t="n">
         <f aca="false">100*E6/SUM(E$4:E$6)</f>
         <v>10</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="27" t="n">
-        <f aca="false">J6*I6</f>
-        <v>8</v>
-      </c>
-      <c r="L6" s="27" t="n">
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="87" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" s="9" t="n">
         <f aca="false">100*K6/SUM(K$4:K$7)</f>
         <v>10</v>
       </c>
-      <c r="M6" s="27" t="n">
+      <c r="M6" s="9" t="n">
         <f aca="false">100*K6/SUM(K$4:K$7)</f>
         <v>10</v>
       </c>
       <c r="N6" s="10"/>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="27" t="n">
+      <c r="P6" s="9" t="n">
         <v>8</v>
       </c>
       <c r="Q6" s="4" t="n">
         <f aca="false">P6/SUM(P4:P6)*100</f>
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="87" t="n">
+      <c r="B7" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="84" t="n">
         <f aca="false">C7*D7</f>
         <v>2</v>
       </c>
-      <c r="F7" s="87" t="n">
+      <c r="F7" s="84" t="n">
         <f aca="false">100*E7/SUM(E$7:E$9)</f>
         <v>10</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="27" t="n">
-        <f aca="false">J7*I7</f>
-        <v>8</v>
-      </c>
-      <c r="L7" s="27" t="n">
+      <c r="I7" s="87" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" s="9" t="n">
         <f aca="false">100*K6/SUM(K$4:K$7)</f>
         <v>10</v>
       </c>
-      <c r="M7" s="27" t="n">
+      <c r="M7" s="9" t="n">
         <f aca="false">100*K6/SUM(K$4:K$7)</f>
         <v>10</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="86" t="n">
+        <v>33</v>
+      </c>
+      <c r="O7" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="83" t="n">
         <v>8</v>
       </c>
       <c r="Q7" s="4" t="n">
         <f aca="false">P7/SUM(P7:P9)*100</f>
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
-      <c r="B8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" s="88" t="n">
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="86" t="n">
         <f aca="false">C8*D8</f>
         <v>16</v>
       </c>
-      <c r="F8" s="88" t="n">
+      <c r="F8" s="86" t="n">
         <f aca="false">100*E8/SUM(E$7:E$9)</f>
         <v>80</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="86" t="n">
+        <v>33</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="83" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="83" t="n">
         <f aca="false">J8*I8</f>
         <v>8</v>
       </c>
-      <c r="L8" s="86" t="n">
+      <c r="L8" s="83" t="n">
         <f aca="false">100*K8/SUM(K$8:K$11)</f>
         <v>10</v>
       </c>
-      <c r="M8" s="86" t="n">
+      <c r="M8" s="83" t="n">
         <f aca="false">100*K8/SUM(K$8:K$11)</f>
         <v>10</v>
       </c>
       <c r="N8" s="10"/>
-      <c r="O8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="27" t="n">
-        <v>16</v>
+      <c r="O8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>8</v>
       </c>
       <c r="Q8" s="4" t="n">
         <f aca="false">P8/SUM(P7:P9)*100</f>
-        <v>50</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="88" t="n">
+      <c r="C9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="86" t="n">
         <f aca="false">C9*D9</f>
         <v>2</v>
       </c>
-      <c r="F9" s="88" t="n">
+      <c r="F9" s="86" t="n">
         <f aca="false">100*E9/SUM(E$7:E$9)</f>
         <v>10</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="27" t="n">
-        <f aca="false">J9*I9</f>
-        <v>16</v>
-      </c>
-      <c r="L9" s="27" t="n">
+      <c r="H9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" s="9" t="n">
         <f aca="false">100*K9/SUM(K$8:K$11)</f>
-        <v>20</v>
-      </c>
-      <c r="M9" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" s="9" t="n">
         <f aca="false">100*SUM(K9:K10)/SUM(K$8:K$11)</f>
         <v>80</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="27" t="n">
+      <c r="P9" s="9" t="n">
         <v>8</v>
       </c>
       <c r="Q9" s="4" t="n">
         <f aca="false">P9/SUM(P7:P9)*100</f>
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="87" t="n">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="84" t="n">
         <f aca="false">C10*D10</f>
         <v>2</v>
       </c>
-      <c r="F10" s="87" t="n">
+      <c r="F10" s="84" t="n">
         <f aca="false">100*E10/SUM(E$10:E$12)</f>
         <v>10</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" s="27" t="n">
-        <f aca="false">J10*I10</f>
-        <v>48</v>
-      </c>
-      <c r="L10" s="27" t="n">
+      <c r="I10" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>56</v>
+      </c>
+      <c r="L10" s="9" t="n">
         <f aca="false">100*K10/SUM(K$8:K$11)</f>
-        <v>60</v>
-      </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="91" t="n">
+        <v>70</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="83" t="n">
         <v>8</v>
       </c>
       <c r="Q10" s="4" t="n">
         <f aca="false">P10/SUM(P10:P12)*100</f>
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
-      <c r="B11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="88" t="n">
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="86" t="n">
         <f aca="false">C11*D11</f>
         <v>2</v>
       </c>
-      <c r="F11" s="88" t="n">
+      <c r="F11" s="86" t="n">
         <f aca="false">100*E11/SUM(E$10:E$12)</f>
         <v>10</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J11" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="27" t="n">
+      <c r="I11" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="n">
         <f aca="false">J11*I11</f>
         <v>8</v>
       </c>
-      <c r="L11" s="27" t="n">
+      <c r="L11" s="9" t="n">
         <f aca="false">100*K11/SUM(K$8:K$11)</f>
         <v>10</v>
       </c>
-      <c r="M11" s="27" t="n">
+      <c r="M11" s="9" t="n">
         <f aca="false">100*K11/SUM(K$8:K$11)</f>
         <v>10</v>
       </c>
-      <c r="N11" s="31"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="0" t="s">
         <v>12</v>
       </c>
@@ -8193,118 +8123,118 @@
       </c>
       <c r="Q11" s="4" t="n">
         <f aca="false">P11/SUM(P10:P12)*100</f>
-        <v>25</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" s="88" t="n">
+      <c r="C12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" s="86" t="n">
         <f aca="false">C12*D12</f>
         <v>16</v>
       </c>
-      <c r="F12" s="88" t="n">
+      <c r="F12" s="86" t="n">
         <f aca="false">100*E12/SUM(E$11:E$13)</f>
         <v>80</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J12" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="86" t="n">
+        <v>34</v>
+      </c>
+      <c r="H12" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="83" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="83" t="n">
         <f aca="false">J12*I12</f>
         <v>8</v>
       </c>
-      <c r="L12" s="86" t="n">
+      <c r="L12" s="83" t="n">
         <f aca="false">100*K12/SUM(K$12:K$15)</f>
         <v>10</v>
       </c>
-      <c r="M12" s="86" t="n">
+      <c r="M12" s="83" t="n">
         <f aca="false">100*K12/SUM(K$12:K$15)</f>
         <v>10</v>
       </c>
       <c r="N12" s="10"/>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="27" t="n">
-        <v>16</v>
+      <c r="P12" s="9" t="n">
+        <v>8</v>
       </c>
       <c r="Q12" s="4" t="n">
         <f aca="false">P12/SUM(P10:P12)*100</f>
-        <v>50</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="87" t="n">
+        <v>35</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="84" t="n">
         <f aca="false">C13*D13</f>
         <v>2</v>
       </c>
-      <c r="F13" s="87" t="n">
+      <c r="F13" s="84" t="n">
         <f aca="false">100*E13/SUM(E$13:E$15)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="27" t="n">
+      <c r="H13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9" t="n">
         <f aca="false">J13*I13</f>
         <v>8</v>
       </c>
-      <c r="L13" s="27" t="n">
+      <c r="L13" s="9" t="n">
         <f aca="false">100*K13/SUM(K$12:K$15)</f>
         <v>10</v>
       </c>
-      <c r="M13" s="27" t="n">
+      <c r="M13" s="9" t="n">
         <f aca="false">100*K13/SUM(K$12:K$15)</f>
         <v>10</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="86" t="n">
+        <v>35</v>
+      </c>
+      <c r="O13" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="83" t="n">
         <v>8</v>
       </c>
       <c r="Q13" s="4" t="n">
@@ -8316,50 +8246,50 @@
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
-      <c r="B14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="88" t="n">
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="86" t="n">
         <f aca="false">C14*D14</f>
         <v>2</v>
       </c>
-      <c r="F14" s="88" t="n">
+      <c r="F14" s="86" t="n">
         <f aca="false">100*E14/SUM(E$13:E$15)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J14" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="27" t="n">
+      <c r="I14" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9" t="n">
         <f aca="false">J14*I14</f>
-        <v>16</v>
-      </c>
-      <c r="L14" s="27" t="n">
+        <v>8</v>
+      </c>
+      <c r="L14" s="9" t="n">
         <f aca="false">100*K14/SUM(K$12:K$15)</f>
-        <v>20</v>
-      </c>
-      <c r="M14" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" s="9" t="n">
         <f aca="false">100*SUM(K14:K15)/SUM(K$12:K$15)</f>
         <v>80</v>
       </c>
       <c r="N14" s="10"/>
-      <c r="O14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="27" t="n">
+      <c r="O14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="9" t="n">
         <v>8</v>
       </c>
       <c r="Q14" s="4" t="n">
@@ -8371,47 +8301,47 @@
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="88" t="n">
+      <c r="C15" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="86" t="n">
         <f aca="false">C15*D15</f>
         <v>2</v>
       </c>
-      <c r="F15" s="88" t="n">
+      <c r="F15" s="86" t="n">
         <f aca="false">100*E15/SUM(E$14:E$16)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J15" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" s="27" t="n">
+      <c r="I15" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" s="9" t="n">
         <f aca="false">J15*I15</f>
-        <v>48</v>
-      </c>
-      <c r="L15" s="27" t="n">
+        <v>56</v>
+      </c>
+      <c r="L15" s="9" t="n">
         <f aca="false">100*K15/SUM(K$12:K$15)</f>
-        <v>60</v>
-      </c>
-      <c r="M15" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="M15" s="9"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="27" t="n">
+      <c r="P15" s="9" t="n">
         <v>8</v>
       </c>
       <c r="Q15" s="4" t="n">
@@ -8423,56 +8353,56 @@
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="87" t="n">
+        <v>36</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="84" t="n">
         <f aca="false">C16*D16</f>
         <v>2</v>
       </c>
-      <c r="F16" s="87" t="n">
+      <c r="F16" s="84" t="n">
         <f aca="false">100*E16/SUM(E$16:E$18)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="86" t="n">
+        <v>35</v>
+      </c>
+      <c r="H16" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="83" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="83" t="n">
         <f aca="false">J16*I16</f>
         <v>8</v>
       </c>
-      <c r="L16" s="87" t="n">
+      <c r="L16" s="84" t="n">
         <f aca="false">100*K16/SUM(K$16:K$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M16" s="87" t="n">
+      <c r="M16" s="84" t="n">
         <f aca="false">100*L16/SUM(L$16:L$18)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="86" t="n">
+        <v>36</v>
+      </c>
+      <c r="O16" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="83" t="n">
         <v>8</v>
       </c>
       <c r="Q16" s="4" t="n">
@@ -8484,50 +8414,50 @@
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
-      <c r="B17" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="88" t="n">
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="86" t="n">
         <f aca="false">C17*D17</f>
         <v>2</v>
       </c>
-      <c r="F17" s="88" t="n">
+      <c r="F17" s="86" t="n">
         <f aca="false">100*E17/SUM(E$16:E$18)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="27" t="n">
+      <c r="H17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9" t="n">
         <f aca="false">J17*I17</f>
         <v>8</v>
       </c>
-      <c r="L17" s="88" t="n">
+      <c r="L17" s="86" t="n">
         <f aca="false">100*K17/SUM(K$16:K$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M17" s="88" t="n">
+      <c r="M17" s="86" t="n">
         <f aca="false">100*L17/SUM(L$16:L$18)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="N17" s="10"/>
-      <c r="O17" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="27" t="n">
+      <c r="O17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="9" t="n">
         <v>8</v>
       </c>
       <c r="Q17" s="4" t="n">
@@ -8539,50 +8469,50 @@
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="88" t="n">
+      <c r="C18" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="86" t="n">
         <f aca="false">C18*D18</f>
         <v>2</v>
       </c>
-      <c r="F18" s="88" t="n">
+      <c r="F18" s="86" t="n">
         <f aca="false">100*E18/SUM(E$16:E$18)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J18" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="27" t="n">
+      <c r="I18" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9" t="n">
         <f aca="false">J18*I18</f>
         <v>8</v>
       </c>
-      <c r="L18" s="88" t="n">
+      <c r="L18" s="86" t="n">
         <f aca="false">100*K18/SUM(K$16:K$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M18" s="88" t="n">
+      <c r="M18" s="86" t="n">
         <f aca="false">100*L18/SUM(L$16:L$18)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="N18" s="10"/>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="27" t="n">
+      <c r="P18" s="9" t="n">
         <v>8</v>
       </c>
       <c r="Q18" s="4" t="n">
@@ -8594,56 +8524,56 @@
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="87" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="84" t="n">
         <f aca="false">C19*D19</f>
         <v>2</v>
       </c>
-      <c r="F19" s="87" t="n">
+      <c r="F19" s="84" t="n">
         <f aca="false">100*E19/SUM(E$19:E$21)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J19" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="86" t="n">
+        <v>36</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="83" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="83" t="n">
         <f aca="false">J19*I19</f>
         <v>8</v>
       </c>
-      <c r="L19" s="87" t="n">
+      <c r="L19" s="84" t="n">
         <f aca="false">100*K19/SUM(K$16:K$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M19" s="87" t="n">
+      <c r="M19" s="84" t="n">
         <f aca="false">100*L19/SUM(L$16:L$18)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="86" t="n">
+        <v>37</v>
+      </c>
+      <c r="O19" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="83" t="n">
         <v>8</v>
       </c>
       <c r="Q19" s="4" t="n">
@@ -8655,50 +8585,50 @@
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
-      <c r="B20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="88" t="n">
+      <c r="B20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="86" t="n">
         <f aca="false">C20*D20</f>
         <v>2</v>
       </c>
-      <c r="F20" s="88" t="n">
+      <c r="F20" s="86" t="n">
         <f aca="false">100*E20/SUM(E$19:E$21)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J20" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="27" t="n">
+      <c r="H20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9" t="n">
         <f aca="false">J20*I20</f>
         <v>8</v>
       </c>
-      <c r="L20" s="88" t="n">
+      <c r="L20" s="86" t="n">
         <f aca="false">100*K20/SUM(K$16:K$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M20" s="88" t="n">
+      <c r="M20" s="86" t="n">
         <f aca="false">100*L20/SUM(L$16:L$18)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="N20" s="10"/>
-      <c r="O20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="27" t="n">
+      <c r="O20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="9" t="n">
         <v>8</v>
       </c>
       <c r="Q20" s="4" t="n">
@@ -8710,50 +8640,50 @@
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="88" t="n">
+      <c r="C21" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="86" t="n">
         <f aca="false">C21*D21</f>
         <v>2</v>
       </c>
-      <c r="F21" s="88" t="n">
+      <c r="F21" s="86" t="n">
         <f aca="false">100*E21/SUM(E$19:E$21)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="27" t="n">
+      <c r="I21" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9" t="n">
         <f aca="false">J21*I21</f>
         <v>8</v>
       </c>
-      <c r="L21" s="88" t="n">
+      <c r="L21" s="86" t="n">
         <f aca="false">100*K21/SUM(K$16:K$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M21" s="88" t="n">
+      <c r="M21" s="86" t="n">
         <f aca="false">100*L21/SUM(L$16:L$18)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="N21" s="10"/>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P21" s="27" t="n">
+      <c r="P21" s="9" t="n">
         <v>8</v>
       </c>
       <c r="Q21" s="4" t="n">
@@ -8764,44 +8694,44 @@
       <c r="S21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="86" t="n">
+        <v>37</v>
+      </c>
+      <c r="H22" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="83" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="83" t="n">
         <f aca="false">J22*I22</f>
         <v>8</v>
       </c>
-      <c r="L22" s="87" t="n">
+      <c r="L22" s="84" t="n">
         <f aca="false">100*K22/SUM(K$16:K$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M22" s="87" t="n">
+      <c r="M22" s="84" t="n">
         <f aca="false">100*L22/SUM(L$16:L$18)</f>
         <v>33.3333333333333</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="86" t="n">
-        <v>64</v>
+      <c r="O22" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="83" t="n">
+        <v>48</v>
       </c>
       <c r="Q22" s="4" t="n">
         <f aca="false">P22/SUM(P22:P24)*100</f>
@@ -8811,40 +8741,40 @@
       <c r="S22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="27" t="n">
+      <c r="I23" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9" t="n">
         <f aca="false">J23*I23</f>
         <v>8</v>
       </c>
-      <c r="L23" s="88" t="n">
+      <c r="L23" s="86" t="n">
         <f aca="false">100*K23/SUM(K$16:K$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M23" s="88" t="n">
+      <c r="M23" s="86" t="n">
         <f aca="false">100*L23/SUM(L$16:L$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="27" t="n">
-        <v>64</v>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>48</v>
       </c>
       <c r="Q23" s="4" t="n">
         <f aca="false">P23/SUM(P22:P24)*100</f>
@@ -8854,40 +8784,40 @@
       <c r="S23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="27" t="n">
+      <c r="H24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9" t="n">
         <f aca="false">J24*I24</f>
         <v>8</v>
       </c>
-      <c r="L24" s="88" t="n">
+      <c r="L24" s="86" t="n">
         <f aca="false">100*K24/SUM(K$16:K$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="M24" s="88" t="n">
+      <c r="M24" s="86" t="n">
         <f aca="false">100*L24/SUM(L$16:L$18)</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="N24" s="85"/>
-      <c r="O24" s="92" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="93" t="n">
-        <v>64</v>
+      <c r="P24" s="89" t="n">
+        <v>48</v>
       </c>
       <c r="Q24" s="4" t="n">
         <f aca="false">P24/SUM(P22:P24)*100</f>
@@ -8897,25 +8827,25 @@
       <c r="S24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="84"/>
+      <c r="A25" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="81"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
@@ -8947,55 +8877,55 @@
       <c r="S26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="85" t="s">
+      <c r="B27" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="85" t="s">
+      <c r="E27" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="85" t="s">
+      <c r="H27" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="85" t="s">
+      <c r="J27" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="85" t="s">
+      <c r="K27" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="M27" s="85" t="s">
+      <c r="M27" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="85" t="s">
+      <c r="N27" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="85" t="s">
+      <c r="O27" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="Q27" s="85" t="s">
+      <c r="Q27" s="82" t="s">
         <v>9</v>
       </c>
       <c r="R27" s="4"/>
@@ -9003,54 +8933,54 @@
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="27" t="n">
+        <v>39</v>
+      </c>
+      <c r="B28" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D28" s="88" t="n">
+      <c r="D28" s="86" t="n">
         <v>9</v>
       </c>
-      <c r="E28" s="88" t="n">
+      <c r="E28" s="86" t="n">
         <v>36</v>
       </c>
-      <c r="F28" s="88" t="n">
+      <c r="F28" s="86" t="n">
         <v>90</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J28" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="L28" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="M28" s="88" t="n">
+        <v>39</v>
+      </c>
+      <c r="H28" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" s="86" t="n">
         <v>90</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O28" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="88" t="n">
+        <v>39</v>
+      </c>
+      <c r="O28" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="86" t="n">
         <f aca="false">100*P28/SUM(P$28:P$29)</f>
         <v>50</v>
       </c>
@@ -9059,46 +8989,46 @@
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
-      <c r="B29" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="27" t="n">
+      <c r="B29" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="88" t="n">
+      <c r="D29" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="86" t="n">
         <v>4</v>
       </c>
-      <c r="F29" s="88" t="n">
+      <c r="F29" s="86" t="n">
         <v>10</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="88" t="s">
+      <c r="H29" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" s="88" t="n">
+      <c r="I29" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" s="86" t="n">
         <v>16</v>
       </c>
-      <c r="K29" s="88" t="n">
+      <c r="K29" s="86" t="n">
         <v>80</v>
       </c>
-      <c r="L29" s="88" t="n">
+      <c r="L29" s="86" t="n">
         <v>80</v>
       </c>
-      <c r="M29" s="88"/>
+      <c r="M29" s="86"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="88" t="n">
+      <c r="O29" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="86" t="n">
         <f aca="false">100*P29/SUM(P$28:P$29)</f>
         <v>50</v>
       </c>
@@ -9107,52 +9037,52 @@
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="86" t="n">
+        <v>40</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="D30" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="87" t="n">
+      <c r="D30" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="84" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="87" t="n">
+      <c r="F30" s="84" t="n">
         <v>10</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="L30" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="M30" s="88" t="n">
+      <c r="H30" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="M30" s="86" t="n">
         <v>10</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="86" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="87" t="n">
+        <v>40</v>
+      </c>
+      <c r="O30" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="83" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="84" t="n">
         <f aca="false">100*P30/SUM(P$28:P$29)</f>
         <v>50</v>
       </c>
@@ -9161,50 +9091,50 @@
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
-      <c r="B31" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="27" t="n">
+      <c r="B31" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D31" s="88" t="n">
+      <c r="D31" s="86" t="n">
         <v>9</v>
       </c>
-      <c r="E31" s="88" t="n">
+      <c r="E31" s="86" t="n">
         <v>36</v>
       </c>
-      <c r="F31" s="88" t="n">
+      <c r="F31" s="86" t="n">
         <v>90</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="86" t="n">
-        <v>10</v>
-      </c>
-      <c r="J31" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="87" t="n">
-        <v>10</v>
-      </c>
-      <c r="L31" s="87" t="n">
-        <v>10</v>
-      </c>
-      <c r="M31" s="87" t="n">
+        <v>40</v>
+      </c>
+      <c r="H31" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="83" t="n">
+        <v>10</v>
+      </c>
+      <c r="J31" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="84" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" s="84" t="n">
+        <v>10</v>
+      </c>
+      <c r="M31" s="84" t="n">
         <v>10</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="O31" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P31" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="88" t="n">
+      <c r="O31" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="86" t="n">
         <f aca="false">100*P31/SUM(P$28:P$29)</f>
         <v>50</v>
       </c>
@@ -9213,52 +9143,52 @@
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="86" t="n">
+        <v>41</v>
+      </c>
+      <c r="B32" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="D32" s="87" t="n">
+      <c r="D32" s="84" t="n">
         <v>7</v>
       </c>
-      <c r="E32" s="87" t="n">
+      <c r="E32" s="84" t="n">
         <v>28</v>
       </c>
-      <c r="F32" s="87" t="n">
+      <c r="F32" s="84" t="n">
         <v>70</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="H32" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J32" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="L32" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="M32" s="88" t="n">
+      <c r="H32" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J32" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L32" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="M32" s="86" t="n">
         <v>90</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O32" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="86" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="87" t="n">
+        <v>41</v>
+      </c>
+      <c r="O32" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="83" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="84" t="n">
         <f aca="false">100*P32/SUM(P$28:P$29)</f>
         <v>50</v>
       </c>
@@ -9267,358 +9197,357 @@
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
-      <c r="B33" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="27" t="n">
+      <c r="B33" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D33" s="88" t="n">
+      <c r="D33" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="E33" s="88" t="n">
-        <v>12</v>
-      </c>
-      <c r="F33" s="88" t="n">
+      <c r="E33" s="86" t="n">
+        <v>12</v>
+      </c>
+      <c r="F33" s="86" t="n">
         <v>30</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="88" t="s">
+      <c r="H33" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" s="88" t="n">
+      <c r="I33" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" s="86" t="n">
         <v>16</v>
       </c>
-      <c r="K33" s="88" t="n">
+      <c r="K33" s="86" t="n">
         <v>80</v>
       </c>
-      <c r="L33" s="88" t="n">
+      <c r="L33" s="86" t="n">
         <v>80</v>
       </c>
-      <c r="M33" s="88"/>
+      <c r="M33" s="86"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P33" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="88" t="n">
+      <c r="O33" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="86" t="n">
         <f aca="false">100*P33/SUM(P$28:P$29)</f>
         <v>50</v>
       </c>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="86" t="n">
+        <v>42</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="D34" s="87" t="n">
+      <c r="D34" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="E34" s="87" t="n">
-        <v>12</v>
-      </c>
-      <c r="F34" s="87" t="n">
+      <c r="E34" s="84" t="n">
+        <v>12</v>
+      </c>
+      <c r="F34" s="84" t="n">
         <v>30</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="86" t="n">
-        <v>10</v>
-      </c>
-      <c r="J34" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="87" t="n">
-        <v>10</v>
-      </c>
-      <c r="L34" s="87" t="n">
+        <v>41</v>
+      </c>
+      <c r="H34" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="83" t="n">
+        <v>10</v>
+      </c>
+      <c r="J34" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="84" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" s="84" t="n">
         <v>28</v>
       </c>
-      <c r="M34" s="87" t="n">
+      <c r="M34" s="84" t="n">
         <v>71</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="P34" s="86" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="87" t="n">
+        <v>42</v>
+      </c>
+      <c r="O34" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" s="83" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="84" t="n">
         <f aca="false">100*P34/SUM(P$28:P$29)</f>
         <v>50</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
-      <c r="B35" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="27" t="n">
+      <c r="B35" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="88" t="n">
+      <c r="D35" s="86" t="n">
         <v>7</v>
       </c>
-      <c r="E35" s="88" t="n">
+      <c r="E35" s="86" t="n">
         <v>28</v>
       </c>
-      <c r="F35" s="88" t="n">
+      <c r="F35" s="86" t="n">
         <v>70</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="88" t="s">
+      <c r="H35" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" s="88" t="n">
+      <c r="I35" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="K35" s="88" t="n">
+      <c r="K35" s="86" t="n">
         <v>15</v>
       </c>
-      <c r="L35" s="88" t="n">
+      <c r="L35" s="86" t="n">
         <v>42</v>
       </c>
-      <c r="M35" s="88"/>
+      <c r="M35" s="86"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P35" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="88" t="n">
+      <c r="O35" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="86" t="n">
         <f aca="false">100*P35/SUM(P$28:P$29)</f>
         <v>50</v>
       </c>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="86" t="n">
+        <v>43</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="D36" s="87" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" s="87" t="n">
-        <v>20</v>
-      </c>
-      <c r="F36" s="87" t="n">
+      <c r="D36" s="84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="84" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" s="84" t="n">
         <v>50</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J36" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="L36" s="88" t="n">
+      <c r="H36" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L36" s="86" t="n">
         <v>28</v>
       </c>
-      <c r="M36" s="88" t="n">
+      <c r="M36" s="86" t="n">
         <v>29</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O36" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="86" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="87" t="n">
+        <v>43</v>
+      </c>
+      <c r="O36" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="84" t="n">
         <f aca="false">100*P36/SUM(P$36:P$37)</f>
         <v>50</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
-      <c r="B37" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="27" t="n">
+      <c r="B37" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D37" s="88" t="n">
-        <v>5</v>
-      </c>
-      <c r="E37" s="88" t="n">
-        <v>20</v>
-      </c>
-      <c r="F37" s="88" t="n">
+      <c r="D37" s="86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" s="86" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" s="86" t="n">
         <v>50</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="86" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="87" t="n">
-        <v>10</v>
-      </c>
-      <c r="L37" s="87" t="n">
+        <v>42</v>
+      </c>
+      <c r="H37" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="83" t="n">
+        <v>10</v>
+      </c>
+      <c r="J37" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="84" t="n">
+        <v>10</v>
+      </c>
+      <c r="L37" s="84" t="n">
         <v>28</v>
       </c>
-      <c r="M37" s="87" t="n">
+      <c r="M37" s="84" t="n">
         <v>29</v>
       </c>
       <c r="N37" s="3"/>
-      <c r="O37" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P37" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="88" t="n">
+      <c r="O37" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="86" t="n">
         <f aca="false">100*P38/SUM(P$38:P$39)</f>
         <v>50</v>
       </c>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="86" t="n">
+        <v>44</v>
+      </c>
+      <c r="B38" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="D38" s="87" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" s="87" t="n">
-        <v>20</v>
-      </c>
-      <c r="F38" s="87" t="n">
+      <c r="D38" s="84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="84" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" s="84" t="n">
         <v>50</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J38" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="L38" s="88" t="n">
+      <c r="H38" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J38" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L38" s="86" t="n">
         <v>28</v>
       </c>
-      <c r="M38" s="88" t="n">
+      <c r="M38" s="86" t="n">
         <v>71</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O38" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="P38" s="86" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="87" t="n">
-        <f aca="false">100*P38/SUM(P$28:P$29)</f>
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="O38" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="84" t="n">
+        <v>50</v>
       </c>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
-      <c r="B39" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="27" t="n">
+      <c r="B39" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D39" s="88" t="n">
-        <v>5</v>
-      </c>
-      <c r="E39" s="88" t="n">
-        <v>20</v>
-      </c>
-      <c r="F39" s="88" t="n">
+      <c r="D39" s="86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" s="86" t="n">
+        <v>20</v>
+      </c>
+      <c r="F39" s="86" t="n">
         <v>50</v>
       </c>
       <c r="G39" s="10"/>
-      <c r="H39" s="88" t="s">
+      <c r="H39" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J39" s="88" t="n">
+      <c r="I39" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="K39" s="88" t="n">
+      <c r="K39" s="86" t="n">
         <v>15</v>
       </c>
-      <c r="L39" s="88" t="n">
+      <c r="L39" s="86" t="n">
         <v>42</v>
       </c>
-      <c r="M39" s="88"/>
+      <c r="M39" s="86"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P39" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" s="88" t="n">
+      <c r="O39" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="86" t="n">
         <f aca="false">100*P39/SUM(P$38:P$39)</f>
         <v>50</v>
       </c>
@@ -9633,36 +9562,36 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J40" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="87" t="n">
-        <v>5</v>
-      </c>
-      <c r="L40" s="87" t="n">
+        <v>43</v>
+      </c>
+      <c r="H40" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="83" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="84" t="n">
+        <v>5</v>
+      </c>
+      <c r="L40" s="84" t="n">
         <v>16.6666666666667</v>
       </c>
-      <c r="M40" s="87" t="n">
+      <c r="M40" s="84" t="n">
         <v>50</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O40" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="P40" s="86" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q40" s="87" t="n">
+      <c r="O40" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="P40" s="83" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q40" s="84" t="n">
         <f aca="false">100*P40/SUM(P$40:P$41)</f>
         <v>50</v>
       </c>
@@ -9677,30 +9606,30 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="88" t="s">
+      <c r="H41" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K41" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="L41" s="88" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="M41" s="88"/>
+      <c r="I41" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" s="86" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="M41" s="86"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P41" s="27" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q41" s="88" t="n">
+      <c r="O41" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="86" t="n">
         <f aca="false">100*P41/SUM(P$40:P$41)</f>
         <v>50</v>
       </c>
@@ -9715,22 +9644,22 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="88" t="n">
-        <v>5</v>
-      </c>
-      <c r="L42" s="88" t="n">
+      <c r="H42" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="86" t="n">
+        <v>5</v>
+      </c>
+      <c r="L42" s="86" t="n">
         <v>16.6666666666667</v>
       </c>
-      <c r="M42" s="88" t="n">
+      <c r="M42" s="86" t="n">
         <v>50</v>
       </c>
       <c r="N42" s="3"/>
@@ -9748,22 +9677,22 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="88" t="s">
+      <c r="H43" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K43" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="L43" s="88" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="M43" s="88"/>
+      <c r="I43" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L43" s="86" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="M43" s="86"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="4"/>
@@ -9779,24 +9708,24 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="87" t="n">
-        <v>5</v>
-      </c>
-      <c r="L44" s="87" t="n">
+        <v>44</v>
+      </c>
+      <c r="H44" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="83" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="84" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" s="84" t="n">
         <v>16.6666666666667</v>
       </c>
-      <c r="M44" s="87" t="n">
+      <c r="M44" s="84" t="n">
         <v>50</v>
       </c>
       <c r="N44" s="3"/>
@@ -9814,22 +9743,22 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="88" t="s">
+      <c r="H45" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K45" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="L45" s="88" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="M45" s="88"/>
+      <c r="I45" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L45" s="86" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="M45" s="86"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -9845,22 +9774,22 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="88" t="n">
-        <v>5</v>
-      </c>
-      <c r="L46" s="88" t="n">
+      <c r="H46" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="86" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" s="86" t="n">
         <v>16.6666666666667</v>
       </c>
-      <c r="M46" s="88" t="n">
+      <c r="M46" s="86" t="n">
         <v>50</v>
       </c>
       <c r="N46" s="4"/>
@@ -9878,22 +9807,22 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="88" t="s">
+      <c r="H47" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="L47" s="88" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="M47" s="88"/>
+      <c r="I47" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" s="86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L47" s="86" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="M47" s="86"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
